--- a/code/results/测试集上PR-AUC top-10模型的Precision-Recall曲线的Wilcoxon秩和检验p value.xlsx
+++ b/code/results/测试集上PR-AUC top-10模型的Precision-Recall曲线的Wilcoxon秩和检验p value.xlsx
@@ -495,31 +495,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02090163547951766</v>
+        <v>2.015542039568882e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2.620579453763472e-29</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000664427982415094</v>
+        <v>6.018952458057371e-45</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3947899379469284</v>
+        <v>1.560894327883865e-46</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1811483937027275</v>
+        <v>1.267287979593378e-44</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06822890436913169</v>
+        <v>5.119247043214509e-44</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1140245032205051</v>
+        <v>1.900439562127342e-36</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7153365498661037</v>
+        <v>1.560894327883865e-46</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7153365498661037</v>
+        <v>2.71080980071622e-41</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02090163547951766</v>
+        <v>2.015542039568882e-17</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08876926235573207</v>
+        <v>4.229435251863444e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2.549230230921883e-18</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003527509622248681</v>
+        <v>1.005045343856342e-18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5432997829879995</v>
+        <v>1.231095091539825e-17</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7153365498661037</v>
+        <v>4.618403388431317e-18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005173602265772241</v>
+        <v>1.130469236294408e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.158272427063104e-06</v>
+        <v>9.125808083750964e-21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02865573421670081</v>
+        <v>9.537887443591897e-18</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2.620579453763472e-29</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08876926235573207</v>
+        <v>4.229435251863444e-06</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6267796178393882</v>
+        <v>9.826078425288737e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2241139540088563</v>
+        <v>0.0007451068696140401</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1446219198934808</v>
+        <v>0.0008108428971031011</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2739132217409401</v>
+        <v>0.000263942684218513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003527509622248681</v>
+        <v>0.002081580496733074</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4657589694018267</v>
+        <v>1.651656314322794e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4657589694018267</v>
+        <v>5.263278341032073e-05</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000664427982415094</v>
+        <v>6.018952458057371e-45</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2.549230230921883e-18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6267796178393882</v>
+        <v>9.826078425288737e-05</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4657589694018267</v>
+        <v>0.3918343781678157</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08876926235573207</v>
+        <v>0.4611630626436664</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02865573421670081</v>
+        <v>0.8254343104797071</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01504380933153147</v>
+        <v>0.7112361467010674</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003527509622248681</v>
+        <v>0.6140766619870626</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.6716949031827618</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3947899379469284</v>
+        <v>1.560894327883865e-46</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003527509622248681</v>
+        <v>1.005045343856342e-18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2241139540088563</v>
+        <v>0.0007451068696140401</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4657589694018267</v>
+        <v>0.3918343781678157</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01068335891657547</v>
+        <v>0.9427686917107808</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.4445030446101377</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.6379763885598926</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000265336394820961</v>
+        <v>0.127500490479779</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1446219198934808</v>
+        <v>0.1992895717220161</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1811483937027275</v>
+        <v>1.267287979593378e-44</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5432997829879995</v>
+        <v>1.231095091539825e-17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1446219198934808</v>
+        <v>0.0008108428971031011</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08876926235573207</v>
+        <v>0.4611630626436664</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01068335891657547</v>
+        <v>0.9427686917107808</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0004228151995236174</v>
+        <v>0.5311705813202738</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03876957007696234</v>
+        <v>0.7300094099748523</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007485082871102844</v>
+        <v>0.2011124562146756</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1140245032205051</v>
+        <v>0.2597326715098743</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06822890436913169</v>
+        <v>5.119247043214509e-44</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7153365498661037</v>
+        <v>4.618403388431317e-18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2739132217409401</v>
+        <v>0.000263942684218513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02865573421670081</v>
+        <v>0.8254343104797071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.4445030446101377</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004228151995236174</v>
+        <v>0.5311705813202738</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1140245032205051</v>
+        <v>0.8749138748180321</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.458012984110585</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9032426350546847</v>
+        <v>0.5639946837537582</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1140245032205051</v>
+        <v>1.900439562127342e-36</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005173602265772241</v>
+        <v>1.130469236294408e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003527509622248681</v>
+        <v>0.002081580496733074</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01504380933153147</v>
+        <v>0.7112361467010674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.6379763885598926</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03876957007696234</v>
+        <v>0.7300094099748523</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1140245032205051</v>
+        <v>0.8749138748180321</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4657589694018267</v>
+        <v>0.4439880129069885</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3947899379469284</v>
+        <v>0.509284018708251</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7153365498661037</v>
+        <v>1.560894327883865e-46</v>
       </c>
       <c r="C10" t="n">
-        <v>1.158272427063104e-06</v>
+        <v>9.125808083750964e-21</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4657589694018267</v>
+        <v>1.651656314322794e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003527509622248681</v>
+        <v>0.6140766619870626</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000265336394820961</v>
+        <v>0.127500490479779</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007485082871102844</v>
+        <v>0.2011124562146756</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5432997829879995</v>
+        <v>0.458012984110585</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4657589694018267</v>
+        <v>0.4439880129069885</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6267796178393882</v>
+        <v>0.9986197483289925</v>
       </c>
     </row>
     <row r="11">
@@ -825,31 +825,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7153365498661037</v>
+        <v>2.71080980071622e-41</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02865573421670081</v>
+        <v>9.537887443591897e-18</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4657589694018267</v>
+        <v>5.263278341032073e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.6716949031827618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1446219198934808</v>
+        <v>0.1992895717220161</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1140245032205051</v>
+        <v>0.2597326715098743</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9032426350546847</v>
+        <v>0.5639946837537582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3947899379469284</v>
+        <v>0.509284018708251</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6267796178393882</v>
+        <v>0.9986197483289925</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
